--- a/test/construct_data/Automatic_reg.result/dummy and polynomial/5_5_13_58/result.xlsx
+++ b/test/construct_data/Automatic_reg.result/dummy and polynomial/5_5_13_58/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_relate\local_storage\Graduation-Project-Of-Undergraduate\test\construct_data\Automatic_reg.result\dummy and polynomial\5_5_13_58\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5B97C0-04E1-46F9-9914-FCD0E9BCB46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802F1159-0470-45E6-AB75-180ABB8DF135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2090,13 +2090,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="51.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
